--- a/Design/数据表/太空电梯表.xlsx
+++ b/Design/数据表/太空电梯表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285973F6-8827-405D-AF05-151DF85BB6DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5031E0-B7EC-4A8B-BFA4-B0BCE87FCFD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>DisplayText</t>
   </si>
   <si>
-    <t>AssetName</t>
-  </si>
-  <si>
     <t>ZLocation</t>
   </si>
   <si>
@@ -80,6 +77,22 @@
   </si>
   <si>
     <t>高度(单位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停靠位(单位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,9 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -419,9 +434,10 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,10 +448,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -443,8 +459,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,45 +471,51 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -498,19 +523,22 @@
         <v>-1</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -529,8 +557,11 @@
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -549,8 +580,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -569,8 +603,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -584,10 +621,13 @@
         <v>12000</v>
       </c>
       <c r="F8">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/数据表/太空电梯表.xlsx
+++ b/Design/数据表/太空电梯表.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5031E0-B7EC-4A8B-BFA4-B0BCE87FCFD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6780E15A-CB2C-4F2B-9065-E1BCFEAB0A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊结构" sheetId="1" r:id="rId1"/>
+    <sheet name="轿厢车次" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +95,79 @@
   <si>
     <t>AssetPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轿厢类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarType</t>
+  </si>
+  <si>
+    <t>资产名(编号贴图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsUp</t>
+  </si>
+  <si>
+    <t>是否上行</t>
+  </si>
+  <si>
+    <t>Dockings</t>
+  </si>
+  <si>
+    <t>停靠站点(特殊结构ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1;4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4;1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>最大速度(m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>加速度(m/s2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deceleration</t>
+  </si>
+  <si>
+    <t>减速度(m/s2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RubbingShoulders</t>
+  </si>
+  <si>
+    <t>擦肩而过的轿厢车次ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦肩而过的Z轴高度</t>
+  </si>
+  <si>
+    <t>RubbingZs</t>
+  </si>
+  <si>
+    <t>array[float]</t>
   </si>
 </sst>
 </file>
@@ -423,9 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -635,4 +707,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9546E307-3E54-4501-A06F-FBF0D54C1600}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>26460</v>
+      </c>
+      <c r="H5">
+        <v>88.2</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>26460</v>
+      </c>
+      <c r="H6">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>88.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Design/数据表/太空电梯表.xlsx
+++ b/Design/数据表/太空电梯表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6780E15A-CB2C-4F2B-9065-E1BCFEAB0A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D618BC-BE93-4BE3-9021-31049060A9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特殊结构" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -621,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14000</v>
+        <v>140000</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -630,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -644,7 +646,7 @@
         <v>400000</v>
       </c>
       <c r="E6">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -667,7 +669,7 @@
         <v>35783200</v>
       </c>
       <c r="E7">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -690,7 +692,7 @@
         <v>35786000</v>
       </c>
       <c r="E8">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="F8">
         <v>-0.8</v>
@@ -713,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9546E307-3E54-4501-A06F-FBF0D54C1600}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
